--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.729012999999999</v>
+        <v>5.535309666666667</v>
       </c>
       <c r="H2">
-        <v>23.187039</v>
+        <v>16.605929</v>
       </c>
       <c r="I2">
-        <v>0.2005915932444304</v>
+        <v>0.1390876011186406</v>
       </c>
       <c r="J2">
-        <v>0.2114050204573468</v>
+        <v>0.1461320332765693</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.31877133333334</v>
+        <v>51.02156433333334</v>
       </c>
       <c r="N2">
-        <v>291.956314</v>
+        <v>153.064693</v>
       </c>
       <c r="O2">
-        <v>0.7059334474701922</v>
+        <v>0.4760900215891154</v>
       </c>
       <c r="P2">
-        <v>0.7149546880603714</v>
+        <v>0.4807539937572116</v>
       </c>
       <c r="Q2">
-        <v>752.1780487793607</v>
+        <v>282.4201582627553</v>
       </c>
       <c r="R2">
-        <v>6769.602439014246</v>
+        <v>2541.781424364797</v>
       </c>
       <c r="S2">
-        <v>0.1416043149525793</v>
+        <v>0.06621821901935189</v>
       </c>
       <c r="T2">
-        <v>0.1511450104554788</v>
+        <v>0.07025355861357242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.729012999999999</v>
+        <v>5.535309666666667</v>
       </c>
       <c r="H3">
-        <v>23.187039</v>
+        <v>16.605929</v>
       </c>
       <c r="I3">
-        <v>0.2005915932444304</v>
+        <v>0.1390876011186406</v>
       </c>
       <c r="J3">
-        <v>0.2114050204573468</v>
+        <v>0.1461320332765693</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.861437</v>
       </c>
       <c r="O3">
-        <v>0.006918788836773586</v>
+        <v>0.008900168787493621</v>
       </c>
       <c r="P3">
-        <v>0.007007205186661606</v>
+        <v>0.008987358473548528</v>
       </c>
       <c r="Q3">
-        <v>7.372027923893665</v>
+        <v>5.279646628885888</v>
       </c>
       <c r="R3">
-        <v>66.34825131504299</v>
+        <v>47.516819659973</v>
       </c>
       <c r="S3">
-        <v>0.001387850876090193</v>
+        <v>0.001237903126203488</v>
       </c>
       <c r="T3">
-        <v>0.001481358355835024</v>
+        <v>0.00131334096752505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.729012999999999</v>
+        <v>5.535309666666667</v>
       </c>
       <c r="H4">
-        <v>23.187039</v>
+        <v>16.605929</v>
       </c>
       <c r="I4">
-        <v>0.2005915932444304</v>
+        <v>0.1390876011186406</v>
       </c>
       <c r="J4">
-        <v>0.2114050204573468</v>
+        <v>0.1461320332765693</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.45494933333333</v>
+        <v>28.11170133333333</v>
       </c>
       <c r="N4">
-        <v>52.36484799999999</v>
+        <v>84.335104</v>
       </c>
       <c r="O4">
-        <v>0.1266151677572303</v>
+        <v>0.2623145854026591</v>
       </c>
       <c r="P4">
-        <v>0.1282332039825957</v>
+        <v>0.2648843261452188</v>
       </c>
       <c r="Q4">
-        <v>134.9095303116746</v>
+        <v>155.6069721368462</v>
       </c>
       <c r="R4">
-        <v>1214.185772805072</v>
+        <v>1400.462749231616</v>
       </c>
       <c r="S4">
-        <v>0.02539793822933365</v>
+        <v>0.03648470642208664</v>
       </c>
       <c r="T4">
-        <v>0.02710914311125177</v>
+        <v>0.03870808516269474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.729012999999999</v>
+        <v>5.535309666666667</v>
       </c>
       <c r="H5">
-        <v>23.187039</v>
+        <v>16.605929</v>
       </c>
       <c r="I5">
-        <v>0.2005915932444304</v>
+        <v>0.1390876011186406</v>
       </c>
       <c r="J5">
-        <v>0.2114050204573468</v>
+        <v>0.1461320332765693</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.218453999999999</v>
+        <v>3.119026</v>
       </c>
       <c r="N5">
-        <v>10.436908</v>
+        <v>6.238052</v>
       </c>
       <c r="O5">
-        <v>0.03785375803879289</v>
+        <v>0.02910410872500189</v>
       </c>
       <c r="P5">
-        <v>0.02555833166004005</v>
+        <v>0.01959281630196169</v>
       </c>
       <c r="Q5">
-        <v>40.33349880590199</v>
+        <v>17.26477476838467</v>
       </c>
       <c r="R5">
-        <v>242.0009928354119</v>
+        <v>103.588648610308</v>
       </c>
       <c r="S5">
-        <v>0.007593145635290632</v>
+        <v>0.004048020665256611</v>
       </c>
       <c r="T5">
-        <v>0.005403159627446421</v>
+        <v>0.002863138083819975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.729012999999999</v>
+        <v>5.535309666666667</v>
       </c>
       <c r="H6">
-        <v>23.187039</v>
+        <v>16.605929</v>
       </c>
       <c r="I6">
-        <v>0.2005915932444304</v>
+        <v>0.1390876011186406</v>
       </c>
       <c r="J6">
-        <v>0.2114050204573468</v>
+        <v>0.1461320332765693</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.91229366666667</v>
+        <v>23.96178866666667</v>
       </c>
       <c r="N6">
-        <v>50.736881</v>
+        <v>71.885366</v>
       </c>
       <c r="O6">
-        <v>0.1226788378970111</v>
+        <v>0.22359111549573</v>
       </c>
       <c r="P6">
-        <v>0.1242465711103312</v>
+        <v>0.2257815053220593</v>
       </c>
       <c r="Q6">
-        <v>130.7153376094843</v>
+        <v>132.6359204372238</v>
       </c>
       <c r="R6">
-        <v>1176.438038485359</v>
+        <v>1193.723283935014</v>
       </c>
       <c r="S6">
-        <v>0.02460834355113668</v>
+        <v>0.031098751885742</v>
       </c>
       <c r="T6">
-        <v>0.02626634890733476</v>
+        <v>0.03299391044895707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>27.471136</v>
       </c>
       <c r="I7">
-        <v>0.2376534122564951</v>
+        <v>0.2300921801028976</v>
       </c>
       <c r="J7">
-        <v>0.2504647561107978</v>
+        <v>0.2417457620165159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.31877133333334</v>
+        <v>51.02156433333334</v>
       </c>
       <c r="N7">
-        <v>291.956314</v>
+        <v>153.064693</v>
       </c>
       <c r="O7">
-        <v>0.7059334474701922</v>
+        <v>0.4760900215891154</v>
       </c>
       <c r="P7">
-        <v>0.7149546880603714</v>
+        <v>0.4807539937572116</v>
       </c>
       <c r="Q7">
-        <v>891.152400883634</v>
+        <v>467.2067775779165</v>
       </c>
       <c r="R7">
-        <v>8020.371607952705</v>
+        <v>4204.860998201249</v>
       </c>
       <c r="S7">
-        <v>0.1677674926172824</v>
+        <v>0.1095445909926751</v>
       </c>
       <c r="T7">
-        <v>0.1790709515753125</v>
+        <v>0.1162202405633205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>27.471136</v>
       </c>
       <c r="I8">
-        <v>0.2376534122564951</v>
+        <v>0.2300921801028976</v>
       </c>
       <c r="J8">
-        <v>0.2504647561107978</v>
+        <v>0.2417457620165159</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.861437</v>
       </c>
       <c r="O8">
-        <v>0.006918788836773586</v>
+        <v>0.008900168787493621</v>
       </c>
       <c r="P8">
-        <v>0.007007205186661606</v>
+        <v>0.008987358473548528</v>
       </c>
       <c r="Q8">
         <v>8.734102775825777</v>
@@ -948,10 +948,10 @@
         <v>78.60692498243199</v>
       </c>
       <c r="S8">
-        <v>0.001644273775741389</v>
+        <v>0.002047859239598169</v>
       </c>
       <c r="T8">
-        <v>0.001755057938095517</v>
+        <v>0.00217265582270358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>27.471136</v>
       </c>
       <c r="I9">
-        <v>0.2376534122564951</v>
+        <v>0.2300921801028976</v>
       </c>
       <c r="J9">
-        <v>0.2504647561107978</v>
+        <v>0.2417457620165159</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.45494933333333</v>
+        <v>28.11170133333333</v>
       </c>
       <c r="N9">
-        <v>52.36484799999999</v>
+        <v>84.335104</v>
       </c>
       <c r="O9">
-        <v>0.1266151677572303</v>
+        <v>0.2623145854026591</v>
       </c>
       <c r="P9">
-        <v>0.1282332039825957</v>
+        <v>0.2648843261452188</v>
       </c>
       <c r="Q9">
-        <v>159.8357623363698</v>
+        <v>257.4201235064605</v>
       </c>
       <c r="R9">
-        <v>1438.521861027328</v>
+        <v>2316.781111558144</v>
       </c>
       <c r="S9">
-        <v>0.03009052666093433</v>
+        <v>0.06035653482808553</v>
       </c>
       <c r="T9">
-        <v>0.03211789816080702</v>
+        <v>0.06403466327020726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>27.471136</v>
       </c>
       <c r="I10">
-        <v>0.2376534122564951</v>
+        <v>0.2300921801028976</v>
       </c>
       <c r="J10">
-        <v>0.2504647561107978</v>
+        <v>0.2417457620165159</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.218453999999999</v>
+        <v>3.119026</v>
       </c>
       <c r="N10">
-        <v>10.436908</v>
+        <v>6.238052</v>
       </c>
       <c r="O10">
-        <v>0.03785375803879289</v>
+        <v>0.02910410872500189</v>
       </c>
       <c r="P10">
-        <v>0.02555833166004005</v>
+        <v>0.01959281630196169</v>
       </c>
       <c r="Q10">
-        <v>47.78561984791467</v>
+        <v>28.56106247784534</v>
       </c>
       <c r="R10">
-        <v>286.713719087488</v>
+        <v>171.366374867072</v>
       </c>
       <c r="S10">
-        <v>0.008996074764650863</v>
+        <v>0.006696627826487447</v>
       </c>
       <c r="T10">
-        <v>0.006401461305830813</v>
+        <v>0.004736480306967344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>27.471136</v>
       </c>
       <c r="I11">
-        <v>0.2376534122564951</v>
+        <v>0.2300921801028976</v>
       </c>
       <c r="J11">
-        <v>0.2504647561107978</v>
+        <v>0.2417457620165159</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.91229366666667</v>
+        <v>23.96178866666667</v>
       </c>
       <c r="N11">
-        <v>50.736881</v>
+        <v>71.885366</v>
       </c>
       <c r="O11">
-        <v>0.1226788378970111</v>
+        <v>0.22359111549573</v>
       </c>
       <c r="P11">
-        <v>0.1242465711103312</v>
+        <v>0.2257815053220593</v>
       </c>
       <c r="Q11">
-        <v>154.8666397963129</v>
+        <v>219.4191850884196</v>
       </c>
       <c r="R11">
-        <v>1393.799758166816</v>
+        <v>1974.772665795776</v>
       </c>
       <c r="S11">
-        <v>0.02915504443788613</v>
+        <v>0.05144656721605128</v>
       </c>
       <c r="T11">
-        <v>0.031119387130752</v>
+        <v>0.05458172205331727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.040615</v>
+        <v>9.356602000000001</v>
       </c>
       <c r="H12">
-        <v>21.121845</v>
+        <v>28.069806</v>
       </c>
       <c r="I12">
-        <v>0.1827255537376681</v>
+        <v>0.2351065080674274</v>
       </c>
       <c r="J12">
-        <v>0.1925758642283695</v>
+        <v>0.2470140528999518</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>97.31877133333334</v>
+        <v>51.02156433333334</v>
       </c>
       <c r="N12">
-        <v>291.956314</v>
+        <v>153.064693</v>
       </c>
       <c r="O12">
-        <v>0.7059334474701922</v>
+        <v>0.4760900215891154</v>
       </c>
       <c r="P12">
-        <v>0.7149546880603714</v>
+        <v>0.4807539937572116</v>
       </c>
       <c r="Q12">
-        <v>685.1840012310367</v>
+        <v>477.3884708843954</v>
       </c>
       <c r="R12">
-        <v>6166.656011079331</v>
+        <v>4296.496237959558</v>
       </c>
       <c r="S12">
-        <v>0.1289920800909319</v>
+        <v>0.111931862501563</v>
       </c>
       <c r="T12">
-        <v>0.1376830169373504</v>
+        <v>0.118752992445807</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.040615</v>
+        <v>9.356602000000001</v>
       </c>
       <c r="H13">
-        <v>21.121845</v>
+        <v>28.069806</v>
       </c>
       <c r="I13">
-        <v>0.1827255537376681</v>
+        <v>0.2351065080674274</v>
       </c>
       <c r="J13">
-        <v>0.1925758642283695</v>
+        <v>0.2470140528999518</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.861437</v>
       </c>
       <c r="O13">
-        <v>0.006918788836773586</v>
+        <v>0.008900168787493621</v>
       </c>
       <c r="P13">
-        <v>0.007007205186661606</v>
+        <v>0.008987358473548528</v>
       </c>
       <c r="Q13">
-        <v>6.715425421251665</v>
+        <v>8.924442385691332</v>
       </c>
       <c r="R13">
-        <v>60.43882879126499</v>
+        <v>80.31998147122199</v>
       </c>
       <c r="S13">
-        <v>0.00126423952139345</v>
+        <v>0.002092487604838334</v>
       </c>
       <c r="T13">
-        <v>0.001349418594646872</v>
+        <v>0.002220003841415946</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.040615</v>
+        <v>9.356602000000001</v>
       </c>
       <c r="H14">
-        <v>21.121845</v>
+        <v>28.069806</v>
       </c>
       <c r="I14">
-        <v>0.1827255537376681</v>
+        <v>0.2351065080674274</v>
       </c>
       <c r="J14">
-        <v>0.1925758642283695</v>
+        <v>0.2470140528999518</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.45494933333333</v>
+        <v>28.11170133333333</v>
       </c>
       <c r="N14">
-        <v>52.36484799999999</v>
+        <v>84.335104</v>
       </c>
       <c r="O14">
-        <v>0.1266151677572303</v>
+        <v>0.2623145854026591</v>
       </c>
       <c r="P14">
-        <v>0.1282332039825957</v>
+        <v>0.2648843261452188</v>
       </c>
       <c r="Q14">
-        <v>122.8935781005067</v>
+        <v>263.0300009188693</v>
       </c>
       <c r="R14">
-        <v>1106.04220290456</v>
+        <v>2367.270008269824</v>
       </c>
       <c r="S14">
-        <v>0.02313582664002764</v>
+        <v>0.06167186618917413</v>
       </c>
       <c r="T14">
-        <v>0.02469462007972116</v>
+        <v>0.06543015095080318</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.040615</v>
+        <v>9.356602000000001</v>
       </c>
       <c r="H15">
-        <v>21.121845</v>
+        <v>28.069806</v>
       </c>
       <c r="I15">
-        <v>0.1827255537376681</v>
+        <v>0.2351065080674274</v>
       </c>
       <c r="J15">
-        <v>0.1925758642283695</v>
+        <v>0.2470140528999518</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.218453999999999</v>
+        <v>3.119026</v>
       </c>
       <c r="N15">
-        <v>10.436908</v>
+        <v>6.238052</v>
       </c>
       <c r="O15">
-        <v>0.03785375803879289</v>
+        <v>0.02910410872500189</v>
       </c>
       <c r="P15">
-        <v>0.02555833166004005</v>
+        <v>0.01959281630196169</v>
       </c>
       <c r="Q15">
-        <v>36.74112550920999</v>
+        <v>29.183484909652</v>
       </c>
       <c r="R15">
-        <v>220.44675305526</v>
+        <v>175.100909457912</v>
       </c>
       <c r="S15">
-        <v>0.006916848898690137</v>
+        <v>0.00684256537274994</v>
       </c>
       <c r="T15">
-        <v>0.004921917807667511</v>
+        <v>0.004839700962471803</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.040615</v>
+        <v>9.356602000000001</v>
       </c>
       <c r="H16">
-        <v>21.121845</v>
+        <v>28.069806</v>
       </c>
       <c r="I16">
-        <v>0.1827255537376681</v>
+        <v>0.2351065080674274</v>
       </c>
       <c r="J16">
-        <v>0.1925758642283695</v>
+        <v>0.2470140528999518</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.91229366666667</v>
+        <v>23.96178866666667</v>
       </c>
       <c r="N16">
-        <v>50.736881</v>
+        <v>71.885366</v>
       </c>
       <c r="O16">
-        <v>0.1226788378970111</v>
+        <v>0.22359111549573</v>
       </c>
       <c r="P16">
-        <v>0.1242465711103312</v>
+        <v>0.2257815053220593</v>
       </c>
       <c r="Q16">
-        <v>119.0729484739383</v>
+        <v>224.2009197621107</v>
       </c>
       <c r="R16">
-        <v>1071.656536265445</v>
+        <v>2017.808277858996</v>
       </c>
       <c r="S16">
-        <v>0.02241655858662499</v>
+        <v>0.05256772639910193</v>
       </c>
       <c r="T16">
-        <v>0.0239268908089836</v>
+        <v>0.05577120469945392</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.912629</v>
+        <v>5.7553975</v>
       </c>
       <c r="H17">
-        <v>11.825258</v>
+        <v>11.510795</v>
       </c>
       <c r="I17">
-        <v>0.1534508573569774</v>
+        <v>0.144617822663078</v>
       </c>
       <c r="J17">
-        <v>0.1078153579421419</v>
+        <v>0.1012948976223954</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>97.31877133333334</v>
+        <v>51.02156433333334</v>
       </c>
       <c r="N17">
-        <v>291.956314</v>
+        <v>153.064693</v>
       </c>
       <c r="O17">
-        <v>0.7059334474701922</v>
+        <v>0.4760900215891154</v>
       </c>
       <c r="P17">
-        <v>0.7149546880603714</v>
+        <v>0.4807539937572116</v>
       </c>
       <c r="Q17">
-        <v>575.4097896298354</v>
+        <v>293.6493838101559</v>
       </c>
       <c r="R17">
-        <v>3452.458737779012</v>
+        <v>1761.896302860935</v>
       </c>
       <c r="S17">
-        <v>0.1083260927512677</v>
+        <v>0.06885110231383568</v>
       </c>
       <c r="T17">
-        <v>0.07708309560564136</v>
+        <v>0.04869792657919448</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.912629</v>
+        <v>5.7553975</v>
       </c>
       <c r="H18">
-        <v>11.825258</v>
+        <v>11.510795</v>
       </c>
       <c r="I18">
-        <v>0.1534508573569774</v>
+        <v>0.144617822663078</v>
       </c>
       <c r="J18">
-        <v>0.1078153579421419</v>
+        <v>0.1012948976223954</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.861437</v>
       </c>
       <c r="O18">
-        <v>0.006918788836773586</v>
+        <v>0.008900168787493621</v>
       </c>
       <c r="P18">
-        <v>0.007007205186661606</v>
+        <v>0.008987358473548528</v>
       </c>
       <c r="Q18">
-        <v>5.639538462624333</v>
+        <v>5.489569118735832</v>
       </c>
       <c r="R18">
-        <v>33.83723077574599</v>
+        <v>32.93741471241499</v>
       </c>
       <c r="S18">
-        <v>0.001061694078874791</v>
+        <v>0.001287123031381215</v>
       </c>
       <c r="T18">
-        <v>0.0007554843353739545</v>
+        <v>0.0009103735564738661</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.912629</v>
+        <v>5.7553975</v>
       </c>
       <c r="H19">
-        <v>11.825258</v>
+        <v>11.510795</v>
       </c>
       <c r="I19">
-        <v>0.1534508573569774</v>
+        <v>0.144617822663078</v>
       </c>
       <c r="J19">
-        <v>0.1078153579421419</v>
+        <v>0.1012948976223954</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.45494933333333</v>
+        <v>28.11170133333333</v>
       </c>
       <c r="N19">
-        <v>52.36484799999999</v>
+        <v>84.335104</v>
       </c>
       <c r="O19">
-        <v>0.1266151677572303</v>
+        <v>0.2623145854026591</v>
       </c>
       <c r="P19">
-        <v>0.1282332039825957</v>
+        <v>0.2648843261452188</v>
       </c>
       <c r="Q19">
-        <v>103.2046396217973</v>
+        <v>161.7940155746133</v>
       </c>
       <c r="R19">
-        <v>619.2278377307839</v>
+        <v>970.76409344768</v>
       </c>
       <c r="S19">
-        <v>0.0194292060467445</v>
+        <v>0.03793536419370058</v>
       </c>
       <c r="T19">
-        <v>0.01382550878745125</v>
+        <v>0.02683143069865714</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.912629</v>
+        <v>5.7553975</v>
       </c>
       <c r="H20">
-        <v>11.825258</v>
+        <v>11.510795</v>
       </c>
       <c r="I20">
-        <v>0.1534508573569774</v>
+        <v>0.144617822663078</v>
       </c>
       <c r="J20">
-        <v>0.1078153579421419</v>
+        <v>0.1012948976223954</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.218453999999999</v>
+        <v>3.119026</v>
       </c>
       <c r="N20">
-        <v>10.436908</v>
+        <v>6.238052</v>
       </c>
       <c r="O20">
-        <v>0.03785375803879289</v>
+        <v>0.02910410872500189</v>
       </c>
       <c r="P20">
-        <v>0.02555833166004005</v>
+        <v>0.01959281630196169</v>
       </c>
       <c r="Q20">
-        <v>30.854782455566</v>
+        <v>17.951234442835</v>
       </c>
       <c r="R20">
-        <v>123.419129822264</v>
+        <v>71.80493777133999</v>
       </c>
       <c r="S20">
-        <v>0.005808691625236342</v>
+        <v>0.004208972834359265</v>
       </c>
       <c r="T20">
-        <v>0.002755580676331196</v>
+        <v>0.001984652321441609</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.912629</v>
+        <v>5.7553975</v>
       </c>
       <c r="H21">
-        <v>11.825258</v>
+        <v>11.510795</v>
       </c>
       <c r="I21">
-        <v>0.1534508573569774</v>
+        <v>0.144617822663078</v>
       </c>
       <c r="J21">
-        <v>0.1078153579421419</v>
+        <v>0.1012948976223954</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.91229366666667</v>
+        <v>23.96178866666667</v>
       </c>
       <c r="N21">
-        <v>50.736881</v>
+        <v>71.885366</v>
       </c>
       <c r="O21">
-        <v>0.1226788378970111</v>
+        <v>0.22359111549573</v>
       </c>
       <c r="P21">
-        <v>0.1242465711103312</v>
+        <v>0.2257815053220593</v>
       </c>
       <c r="Q21">
-        <v>99.99611799004967</v>
+        <v>137.9096185876617</v>
       </c>
       <c r="R21">
-        <v>599.976707940298</v>
+        <v>827.45771152597</v>
       </c>
       <c r="S21">
-        <v>0.018825172854854</v>
+        <v>0.03233526028980128</v>
       </c>
       <c r="T21">
-        <v>0.01339568853734415</v>
+        <v>0.02287051446662832</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.691789</v>
+        <v>9.992936</v>
       </c>
       <c r="H22">
-        <v>26.075367</v>
+        <v>29.978808</v>
       </c>
       <c r="I22">
-        <v>0.2255785834044289</v>
+        <v>0.2510958880479564</v>
       </c>
       <c r="J22">
-        <v>0.2377390012613438</v>
+        <v>0.2638132541845675</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.31877133333334</v>
+        <v>51.02156433333334</v>
       </c>
       <c r="N22">
-        <v>291.956314</v>
+        <v>153.064693</v>
       </c>
       <c r="O22">
-        <v>0.7059334474701922</v>
+        <v>0.4760900215891154</v>
       </c>
       <c r="P22">
-        <v>0.7149546880603714</v>
+        <v>0.4807539937572116</v>
       </c>
       <c r="Q22">
-        <v>845.8742261685821</v>
+        <v>509.8552270028827</v>
       </c>
       <c r="R22">
-        <v>7612.868035517238</v>
+        <v>4588.697043025944</v>
       </c>
       <c r="S22">
-        <v>0.1592434670581307</v>
+        <v>0.1195442467616897</v>
       </c>
       <c r="T22">
-        <v>0.1699726134865883</v>
+        <v>0.1268292755553173</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.691789</v>
+        <v>9.992936</v>
       </c>
       <c r="H23">
-        <v>26.075367</v>
+        <v>29.978808</v>
       </c>
       <c r="I23">
-        <v>0.2255785834044289</v>
+        <v>0.2510958880479564</v>
       </c>
       <c r="J23">
-        <v>0.2377390012613438</v>
+        <v>0.2638132541845675</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.861437</v>
       </c>
       <c r="O23">
-        <v>0.006918788836773586</v>
+        <v>0.008900168787493621</v>
       </c>
       <c r="P23">
-        <v>0.007007205186661606</v>
+        <v>0.008987358473548528</v>
       </c>
       <c r="Q23">
-        <v>8.290335546930999</v>
+        <v>9.531385603010666</v>
       </c>
       <c r="R23">
-        <v>74.61301992237898</v>
+        <v>85.78247042709599</v>
       </c>
       <c r="S23">
-        <v>0.001560730584673762</v>
+        <v>0.002234795785472414</v>
       </c>
       <c r="T23">
-        <v>0.001665885962710238</v>
+        <v>0.002370984285430085</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.691789</v>
+        <v>9.992936</v>
       </c>
       <c r="H24">
-        <v>26.075367</v>
+        <v>29.978808</v>
       </c>
       <c r="I24">
-        <v>0.2255785834044289</v>
+        <v>0.2510958880479564</v>
       </c>
       <c r="J24">
-        <v>0.2377390012613438</v>
+        <v>0.2638132541845675</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.45494933333333</v>
+        <v>28.11170133333333</v>
       </c>
       <c r="N24">
-        <v>52.36484799999999</v>
+        <v>84.335104</v>
       </c>
       <c r="O24">
-        <v>0.1266151677572303</v>
+        <v>0.2623145854026591</v>
       </c>
       <c r="P24">
-        <v>0.1282332039825957</v>
+        <v>0.2648843261452188</v>
       </c>
       <c r="Q24">
-        <v>151.714736611024</v>
+        <v>280.9184322751146</v>
       </c>
       <c r="R24">
-        <v>1365.432629499216</v>
+        <v>2528.265890476032</v>
       </c>
       <c r="S24">
-        <v>0.02856167018019011</v>
+        <v>0.06586611376961218</v>
       </c>
       <c r="T24">
-        <v>0.03048603384336447</v>
+        <v>0.0698799960628565</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.691789</v>
+        <v>9.992936</v>
       </c>
       <c r="H25">
-        <v>26.075367</v>
+        <v>29.978808</v>
       </c>
       <c r="I25">
-        <v>0.2255785834044289</v>
+        <v>0.2510958880479564</v>
       </c>
       <c r="J25">
-        <v>0.2377390012613438</v>
+        <v>0.2638132541845675</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.218453999999999</v>
+        <v>3.119026</v>
       </c>
       <c r="N25">
-        <v>10.436908</v>
+        <v>6.238052</v>
       </c>
       <c r="O25">
-        <v>0.03785375803879289</v>
+        <v>0.02910410872500189</v>
       </c>
       <c r="P25">
-        <v>0.02555833166004005</v>
+        <v>0.01959281630196169</v>
       </c>
       <c r="Q25">
-        <v>45.357701074206</v>
+        <v>31.168227200336</v>
       </c>
       <c r="R25">
-        <v>272.146206445236</v>
+        <v>187.009363202016</v>
       </c>
       <c r="S25">
-        <v>0.008538997114924911</v>
+        <v>0.007307922026148626</v>
       </c>
       <c r="T25">
-        <v>0.006076212242764103</v>
+        <v>0.005168844627260958</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.691789</v>
+        <v>9.992936</v>
       </c>
       <c r="H26">
-        <v>26.075367</v>
+        <v>29.978808</v>
       </c>
       <c r="I26">
-        <v>0.2255785834044289</v>
+        <v>0.2510958880479564</v>
       </c>
       <c r="J26">
-        <v>0.2377390012613438</v>
+        <v>0.2638132541845675</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.91229366666667</v>
+        <v>23.96178866666667</v>
       </c>
       <c r="N26">
-        <v>50.736881</v>
+        <v>71.885366</v>
       </c>
       <c r="O26">
-        <v>0.1226788378970111</v>
+        <v>0.22359111549573</v>
       </c>
       <c r="P26">
-        <v>0.1242465711103312</v>
+        <v>0.2257815053220593</v>
       </c>
       <c r="Q26">
-        <v>146.998088056703</v>
+        <v>239.4486205915254</v>
       </c>
       <c r="R26">
-        <v>1322.982792510327</v>
+        <v>2155.037585323728</v>
       </c>
       <c r="S26">
-        <v>0.02767371846650933</v>
+        <v>0.05614280970503351</v>
       </c>
       <c r="T26">
-        <v>0.02953825572591666</v>
+        <v>0.05956415365370272</v>
       </c>
     </row>
   </sheetData>
